--- a/Mortality/results/vector data base.xlsx
+++ b/Mortality/results/vector data base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad reza\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad reza\Desktop\LLM paper experimrnt\dataset\super cleaned and converted to text\Mortality\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9A90F6-7B3B-4580-B39B-D32E2164F22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD89AA62-62AC-440C-9C26-2CCD075D0750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="2676" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,19 +400,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.99869281045751601</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.99838056680161902</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.999189627228525</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -420,19 +420,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>0.98936170212765895</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.986784140969163</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.94827586206896497</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.99334811529933398</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
